--- a/GAMS_files/PSE_data.xlsx
+++ b/GAMS_files/PSE_data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="218">
   <si>
     <t>dim</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>PC(m)</t>
+  </si>
+  <si>
+    <t>c2</t>
   </si>
 </sst>
 </file>
@@ -792,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,6 +859,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4002,10 +4008,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G84"/>
+  <dimension ref="B2:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4032,10 +4038,10 @@
       <c r="B2" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
@@ -4386,165 +4392,210 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="22"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53" s="25">
+        <v>5</v>
+      </c>
+      <c r="F53" s="25">
+        <v>5</v>
+      </c>
+      <c r="G53" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="22"/>
+      <c r="C54" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" s="25">
+        <v>6</v>
+      </c>
+      <c r="F54" s="25">
+        <v>6</v>
+      </c>
+      <c r="G54" s="25">
+        <v>6</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>200</v>
-      </c>
+      <c r="B55" s="22"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="22"/>
-      <c r="D56" s="10" t="s">
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="22"/>
+      <c r="D58" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="22"/>
-      <c r="C57" s="10" t="s">
+      <c r="E58" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="22"/>
+      <c r="C59" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D59" s="10">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="10" t="s">
+      <c r="E59" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D60" s="10">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="22" t="s">
+      <c r="E60" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C62" s="10" t="s">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D64" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="10">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="10">
         <v>25</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D65" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="22" t="s">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="10" t="s">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D69" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="10">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="10">
         <v>1000</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D70" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="22" t="s">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C72" s="10" t="s">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C73" s="10">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="22" t="s">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D77" s="10" t="s">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D79" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E79" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C78" s="10" t="s">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D80" s="10">
         <v>4</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E80" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C79" s="10" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D81" s="10">
         <v>5</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E81" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="22" t="s">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="22" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="10" t="s">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D85" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="10">
-        <v>1</v>
-      </c>
-      <c r="D84" s="10">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="10">
+        <v>1</v>
+      </c>
+      <c r="D86" s="10">
         <v>2</v>
       </c>
     </row>
